--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>936545.7889639703</v>
+        <v>934124.3236508608</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673425</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>64.43856447801488</v>
       </c>
       <c r="E2" t="n">
-        <v>351.0964192978441</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414539</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.193167556984073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>155.5598945400495</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>299.521520969392</v>
       </c>
       <c r="D5" t="n">
-        <v>153.4696656457188</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>233.3257147283073</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>58.28185552386351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>20.923658794391</v>
       </c>
       <c r="X8" t="n">
-        <v>94.81275980261439</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>32.79376842490311</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>54.45803047044437</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>297.146149609702</v>
       </c>
       <c r="G11" t="n">
-        <v>410.2160107437958</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>287.3803615687889</v>
       </c>
       <c r="I11" t="n">
-        <v>14.36985571834893</v>
+        <v>14.36985571834876</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>24.92779429726345</v>
+        <v>93.10628328435176</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>200.8287031225937</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9387147661294</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,10 +1464,10 @@
         <v>134.6218784006021</v>
       </c>
       <c r="H12" t="n">
-        <v>85.95014355551388</v>
+        <v>85.95014355551386</v>
       </c>
       <c r="I12" t="n">
-        <v>5.816834883872275</v>
+        <v>5.81683488387219</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>141.9405139481857</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.2522581002752</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.196377237229</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>273.1155703302495</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>82.8197551504938</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.9813656337166</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1664,7 +1664,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
-        <v>277.4607323328459</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>81.37259901119253</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>156.1288612735651</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833772</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>132.6315337216688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710078</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699814</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>253.6303937659917</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520938</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695436</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>135.0949745400655</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>120.7871326503975</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.240968717412</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.800047274032</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182142</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>165.8053198049112</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>102.1557845699814</v>
       </c>
       <c r="G31" t="n">
-        <v>84.8780074336923</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699809</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>81.47435506334413</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833565</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>217.7394735195574</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3667,16 +3667,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,13 +3721,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>220.2172734357222</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3898,10 +3898,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8784673763407</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>120.8326485140799</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833869</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2016.438433460088</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C2" t="n">
-        <v>1647.475916519676</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="D2" t="n">
-        <v>1289.210217912926</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.03827352421</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2403.03827352421</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2403.03827352421</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4404,16 +4404,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,13 +4425,13 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
         <v>2435.471302619336</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>609.2899331452385</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C4" t="n">
-        <v>608.0847133907091</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D4" t="n">
-        <v>457.9680739783734</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757124</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757124</v>
+        <v>763.7557992120744</v>
       </c>
       <c r="T4" t="n">
-        <v>609.2899331452385</v>
+        <v>541.9891837816004</v>
       </c>
       <c r="U4" t="n">
-        <v>609.2899331452385</v>
+        <v>541.9891837816004</v>
       </c>
       <c r="V4" t="n">
-        <v>609.2899331452385</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="W4" t="n">
-        <v>609.2899331452385</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="X4" t="n">
-        <v>609.2899331452385</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y4" t="n">
-        <v>609.2899331452385</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1844.338003964587</v>
+        <v>1892.963660013483</v>
       </c>
       <c r="C5" t="n">
-        <v>1475.375487024175</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.5429342656</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>2994.5429342656</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X5" t="n">
-        <v>2621.07717600452</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y5" t="n">
-        <v>2230.937844028708</v>
+        <v>1892.963660013483</v>
       </c>
     </row>
     <row r="6">
@@ -4638,28 +4638,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4732,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>699.120390387711</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>699.120390387711</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>463.4378502581077</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4805,13 +4805,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4841,13 +4841,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2403.60903256753</v>
       </c>
       <c r="X8" t="n">
-        <v>1976.204921733553</v>
+        <v>2030.14327430645</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.204921733553</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4887,7 +4887,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.4482993600903</v>
+        <v>246.527082541107</v>
       </c>
       <c r="C10" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D10" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
         <v>66.5121164321834</v>
@@ -4987,25 +4987,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>474.5166334391243</v>
       </c>
       <c r="W10" t="n">
-        <v>865.8788942318774</v>
+        <v>474.5166334391243</v>
       </c>
       <c r="X10" t="n">
-        <v>637.8893433338601</v>
+        <v>246.527082541107</v>
       </c>
       <c r="Y10" t="n">
-        <v>417.09676419033</v>
+        <v>246.527082541107</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2326.882143152188</v>
+        <v>1801.684257419052</v>
       </c>
       <c r="C11" t="n">
-        <v>1957.919626211777</v>
+        <v>1432.72174047864</v>
       </c>
       <c r="D11" t="n">
-        <v>1599.653927605027</v>
+        <v>1074.45604187189</v>
       </c>
       <c r="E11" t="n">
-        <v>1213.865675006783</v>
+        <v>688.6677892736458</v>
       </c>
       <c r="F11" t="n">
-        <v>802.8797702171751</v>
+        <v>388.52016340526</v>
       </c>
       <c r="G11" t="n">
-        <v>388.5201634052602</v>
+        <v>388.52016340526</v>
       </c>
       <c r="H11" t="n">
-        <v>98.23696990143293</v>
+        <v>98.23696990143276</v>
       </c>
       <c r="I11" t="n">
-        <v>83.72196412532287</v>
+        <v>83.72196412532297</v>
       </c>
       <c r="J11" t="n">
         <v>331.8987991897698</v>
       </c>
       <c r="K11" t="n">
-        <v>754.5900599895881</v>
+        <v>754.590059989589</v>
       </c>
       <c r="L11" t="n">
-        <v>1315.87770778774</v>
+        <v>1315.877707787742</v>
       </c>
       <c r="M11" t="n">
-        <v>1972.087801958786</v>
+        <v>1972.087801958789</v>
       </c>
       <c r="N11" t="n">
-        <v>2643.529869878884</v>
+        <v>2643.529869878887</v>
       </c>
       <c r="O11" t="n">
-        <v>3264.218313512959</v>
+        <v>3264.218313512962</v>
       </c>
       <c r="P11" t="n">
-        <v>3759.460539161022</v>
+        <v>3759.460539161027</v>
       </c>
       <c r="Q11" t="n">
-        <v>4083.194079157495</v>
+        <v>4083.194079157501</v>
       </c>
       <c r="R11" t="n">
-        <v>4186.098206266143</v>
+        <v>4186.098206266149</v>
       </c>
       <c r="S11" t="n">
-        <v>4160.918616066887</v>
+        <v>4092.051455473874</v>
       </c>
       <c r="T11" t="n">
-        <v>4160.918616066887</v>
+        <v>3889.194179592466</v>
       </c>
       <c r="U11" t="n">
-        <v>4160.918616066887</v>
+        <v>3635.72073033375</v>
       </c>
       <c r="V11" t="n">
-        <v>3829.855728723316</v>
+        <v>3304.65784299018</v>
       </c>
       <c r="W11" t="n">
-        <v>3477.087073453202</v>
+        <v>2951.889187720065</v>
       </c>
       <c r="X11" t="n">
-        <v>3103.621315192122</v>
+        <v>2578.423429458986</v>
       </c>
       <c r="Y11" t="n">
-        <v>2713.48198321631</v>
+        <v>2188.284097483174</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.4158817408644</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59755491711304</v>
+        <v>89.59755491711306</v>
       </c>
       <c r="I12" t="n">
-        <v>83.72196412532287</v>
+        <v>83.72196412532297</v>
       </c>
       <c r="J12" t="n">
-        <v>83.72196412532287</v>
+        <v>212.7165399511885</v>
       </c>
       <c r="K12" t="n">
-        <v>83.72196412532287</v>
+        <v>511.3436407162638</v>
       </c>
       <c r="L12" t="n">
-        <v>356.3950993492406</v>
+        <v>959.2071717232543</v>
       </c>
       <c r="M12" t="n">
-        <v>898.3875838486221</v>
+        <v>1257.201586545629</v>
       </c>
       <c r="N12" t="n">
-        <v>1469.133641579478</v>
+        <v>1827.947644276486</v>
       </c>
       <c r="O12" t="n">
-        <v>1969.03498491138</v>
+        <v>2327.848987608389</v>
       </c>
       <c r="P12" t="n">
-        <v>2350.916818772889</v>
+        <v>2327.848987608389</v>
       </c>
       <c r="Q12" t="n">
-        <v>2556.27551506584</v>
+        <v>2533.207683901341</v>
       </c>
       <c r="R12" t="n">
         <v>2556.27551506584</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>694.0621365612775</v>
+        <v>83.72196412532297</v>
       </c>
       <c r="C13" t="n">
-        <v>525.1259536333706</v>
+        <v>83.72196412532297</v>
       </c>
       <c r="D13" t="n">
-        <v>375.0093142210349</v>
+        <v>83.72196412532297</v>
       </c>
       <c r="E13" t="n">
-        <v>227.0962206386417</v>
+        <v>83.72196412532297</v>
       </c>
       <c r="F13" t="n">
-        <v>227.0962206386417</v>
+        <v>83.72196412532297</v>
       </c>
       <c r="G13" t="n">
-        <v>227.0962206386417</v>
+        <v>83.72196412532297</v>
       </c>
       <c r="H13" t="n">
-        <v>83.72196412532287</v>
+        <v>83.72196412532297</v>
       </c>
       <c r="I13" t="n">
-        <v>83.72196412532287</v>
+        <v>83.72196412532297</v>
       </c>
       <c r="J13" t="n">
-        <v>117.7016606826973</v>
+        <v>117.7016606826976</v>
       </c>
       <c r="K13" t="n">
-        <v>252.4231786760676</v>
+        <v>252.4231786760682</v>
       </c>
       <c r="L13" t="n">
-        <v>454.7261364145515</v>
+        <v>454.7261364145525</v>
       </c>
       <c r="M13" t="n">
-        <v>671.2845233962412</v>
+        <v>671.2845233962424</v>
       </c>
       <c r="N13" t="n">
-        <v>890.5511618732487</v>
+        <v>890.5511618732505</v>
       </c>
       <c r="O13" t="n">
-        <v>1072.766302922987</v>
+        <v>1072.766302922989</v>
       </c>
       <c r="P13" t="n">
-        <v>1209.620863594893</v>
+        <v>1209.620863594896</v>
       </c>
       <c r="Q13" t="n">
-        <v>1248.78408976231</v>
+        <v>1248.784089762312</v>
       </c>
       <c r="R13" t="n">
-        <v>1248.78408976231</v>
+        <v>1248.784089762312</v>
       </c>
       <c r="S13" t="n">
-        <v>1248.78408976231</v>
+        <v>1062.670697741832</v>
       </c>
       <c r="T13" t="n">
-        <v>1248.78408976231</v>
+        <v>842.2703166941257</v>
       </c>
       <c r="U13" t="n">
-        <v>1248.78408976231</v>
+        <v>566.3960032292272</v>
       </c>
       <c r="V13" t="n">
-        <v>1248.78408976231</v>
+        <v>311.7115150233403</v>
       </c>
       <c r="W13" t="n">
-        <v>959.3669197253494</v>
+        <v>311.7115150233403</v>
       </c>
       <c r="X13" t="n">
-        <v>875.7106013915172</v>
+        <v>83.72196412532297</v>
       </c>
       <c r="Y13" t="n">
-        <v>875.7106013915172</v>
+        <v>83.72196412532297</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555045</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358681</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
         <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2220959708297</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128767</v>
+        <v>841.937882512877</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018652</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M14" t="n">
         <v>2182.46222495769</v>
@@ -5294,34 +5294,34 @@
         <v>3602.609239333934</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750195</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469745</v>
+        <v>4100.461420469744</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126173</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594979</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619167</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060311</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608056</v>
+        <v>106.3138404733492</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608056</v>
+        <v>106.3138404733492</v>
       </c>
       <c r="L15" t="n">
-        <v>372.2013186925058</v>
+        <v>106.3138404733492</v>
       </c>
       <c r="M15" t="n">
-        <v>964.2196729446335</v>
+        <v>698.3321947254767</v>
       </c>
       <c r="N15" t="n">
-        <v>1586.31563634397</v>
+        <v>1320.428158124813</v>
       </c>
       <c r="O15" t="n">
-        <v>2133.192111344164</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>808.5994734900676</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C16" t="n">
-        <v>639.6632905621607</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="D16" t="n">
-        <v>489.546651149825</v>
+        <v>175.0061676818306</v>
       </c>
       <c r="E16" t="n">
-        <v>489.546651149825</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="F16" t="n">
-        <v>342.6567036519148</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="G16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861982</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693325</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
         <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020529</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
         <v>2310.662640856733</v>
@@ -5461,25 +5461,25 @@
         <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.516429368669</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>2140.837647083051</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1983.131726604702</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1728.447238398815</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1439.030068361855</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.040517463837</v>
+        <v>896.5000339958428</v>
       </c>
       <c r="Y16" t="n">
-        <v>990.2479383203073</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="17">
@@ -5513,13 +5513,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098234</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819165</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695806</v>
+        <v>194.800778399828</v>
       </c>
       <c r="E19" t="n">
-        <v>516.3896878871876</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>369.4997403892776</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,16 +5671,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K19" t="n">
         <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
     <row r="20">
@@ -5741,22 +5741,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783226</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.021500885209</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,22 +5978,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6005,10 +6005,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273902</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273902</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>559.0424953278208</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278208</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="26">
@@ -6218,7 +6218,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6227,7 +6227,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6245,22 +6245,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852888</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>562.8579153358626</v>
       </c>
       <c r="L27" t="n">
-        <v>95.58405025273903</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>702.4944101284093</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>533.5582272005024</v>
+        <v>390.8232499582198</v>
       </c>
       <c r="D28" t="n">
-        <v>383.4415877881668</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>235.5284942057738</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782952</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038336</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1877.026663243044</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.342175037157</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1332.925005000197</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1104.935454102179</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>884.142874958649</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
@@ -6455,7 +6455,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192548</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6552,16 +6552,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>870.3164745246295</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>701.3802915967226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>551.2636521843868</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>403.3505586019937</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F31" t="n">
-        <v>403.3505586019938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6625,16 +6625,16 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6780,25 +6780,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,46 +6832,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>870.3164745246295</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C34" t="n">
-        <v>870.3164745246295</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D34" t="n">
-        <v>720.1998351122937</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>572.2867415299006</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>425.3967940319904</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>258.2006947468704</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y34" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="35">
@@ -6932,31 +6932,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>615.6449305525891</v>
+        <v>513.8536007400687</v>
       </c>
       <c r="C37" t="n">
-        <v>615.6449305525891</v>
+        <v>344.9174178121618</v>
       </c>
       <c r="D37" t="n">
-        <v>465.5282911402533</v>
+        <v>194.8007783998261</v>
       </c>
       <c r="E37" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7108,37 +7108,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.0893932798</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V37" t="n">
-        <v>1535.492695461337</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W37" t="n">
-        <v>1246.075525424376</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X37" t="n">
-        <v>1018.085974526359</v>
+        <v>916.2946447138386</v>
       </c>
       <c r="Y37" t="n">
-        <v>797.2933953828289</v>
+        <v>695.5020655703084</v>
       </c>
     </row>
     <row r="38">
@@ -7163,10 +7163,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7175,19 +7175,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>868.6673633290469</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>699.73118040114</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D40" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1278.305379057304</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1050.315828159287</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1050.315828159287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7494,19 +7494,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>869.69050941353</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>700.7543264856231</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>550.6376870732872</v>
+        <v>408.9258559154846</v>
       </c>
       <c r="E43" t="n">
-        <v>402.724593490894</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570817</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2324.909903263008</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2105.308438285949</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1816.233211630147</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1561.54872342426</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1272.1315533873</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.1315533873</v>
+        <v>916.294644713841</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.33897424377</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121644</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
   </sheetData>
@@ -23267,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>109.7298961320095</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.2160107437958</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>68.17848898708841</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>200.8287031225937</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9387147661294</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>165.7092488456592</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>141.9405139481856</v>
       </c>
       <c r="I13" t="n">
-        <v>86.83261550597823</v>
+        <v>86.83261550597817</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>74.69849031983848</v>
+        <v>74.69849031983838</v>
       </c>
       <c r="S13" t="n">
-        <v>184.2522581002752</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.196377237229</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.19457132852</v>
+        <v>13.07900099827093</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>142.8899002385434</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613729099</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>50.29152613728905</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>65.06136363537664</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>130.0565902748553</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823144</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>32.89260457060007</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462245</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>32.8926045705993</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24254,7 +24254,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.285372470912988e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>44.73700564187183</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>46.45968844823037</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.44677382459588</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>120.379154584333</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294987</v>
       </c>
       <c r="G31" t="n">
-        <v>80.64613085857654</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856747</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>46.45968844823144</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>58.82035778287974</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823352</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25327,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>34.39816980427059</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,13 +25609,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>66.30572490086882</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>44.73700564187165</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>60.19363748756471</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823048</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>884467.2867916459</v>
+        <v>884467.2867916466</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>977244.4371609207</v>
+        <v>977244.4371609206</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>982604.6308232909</v>
+        <v>982604.6308232908</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>982604.6308232909</v>
+        <v>982604.6308232908</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>982604.6308232909</v>
+        <v>982604.6308232908</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>982604.6308232909</v>
+        <v>982604.6308232907</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>982604.6308232909</v>
+        <v>982604.6308232907</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>982604.6308232909</v>
+        <v>982604.6308232908</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>982604.6308232909</v>
+        <v>982604.6308232907</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>982604.6308232909</v>
+        <v>982604.6308232908</v>
       </c>
     </row>
     <row r="15">
@@ -26314,46 +26314,46 @@
         <v>451572.9734253559</v>
       </c>
       <c r="C2" t="n">
+        <v>451572.973425356</v>
+      </c>
+      <c r="D2" t="n">
         <v>451572.9734253559</v>
       </c>
-      <c r="D2" t="n">
-        <v>451572.973425356</v>
-      </c>
       <c r="E2" t="n">
-        <v>405380.8397795041</v>
+        <v>405380.8397795045</v>
       </c>
       <c r="F2" t="n">
-        <v>441473.8744009171</v>
+        <v>441473.8744009172</v>
       </c>
       <c r="G2" t="n">
+        <v>443930.6298295035</v>
+      </c>
+      <c r="H2" t="n">
         <v>443930.6298295034</v>
-      </c>
-      <c r="H2" t="n">
-        <v>443930.6298295035</v>
       </c>
       <c r="I2" t="n">
         <v>443930.6298295034</v>
       </c>
       <c r="J2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="K2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295032</v>
       </c>
       <c r="L2" t="n">
+        <v>443930.6298295033</v>
+      </c>
+      <c r="M2" t="n">
+        <v>443930.6298295032</v>
+      </c>
+      <c r="N2" t="n">
+        <v>443930.6298295033</v>
+      </c>
+      <c r="O2" t="n">
         <v>443930.6298295034</v>
       </c>
-      <c r="M2" t="n">
-        <v>443930.6298295035</v>
-      </c>
-      <c r="N2" t="n">
-        <v>443930.6298295036</v>
-      </c>
-      <c r="O2" t="n">
-        <v>443930.6298295035</v>
-      </c>
       <c r="P2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295033</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>205265.6758529964</v>
+        <v>205265.6758529978</v>
       </c>
       <c r="F3" t="n">
-        <v>105843.589032068</v>
+        <v>105843.5890320664</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557874</v>
+        <v>11167.23623557904</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>53609.53605651409</v>
+        <v>53609.53605651443</v>
       </c>
       <c r="N3" t="n">
-        <v>27828.78668214098</v>
+        <v>27828.78668214054</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224584</v>
+        <v>3023.297977224693</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.74410405252</v>
+      </c>
+      <c r="C4" t="n">
+        <v>93596.7441040525</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405257</v>
       </c>
-      <c r="C4" t="n">
-        <v>93596.74410405254</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93596.74410405259</v>
-      </c>
       <c r="E4" t="n">
-        <v>695.9801673478405</v>
+        <v>695.980167347836</v>
       </c>
       <c r="F4" t="n">
         <v>14820.16342064201</v>
@@ -26433,25 +26433,25 @@
         <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186735</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186737</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186735</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186737</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186736</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>91212.74033452536</v>
+        <v>91212.74033452547</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1078702.456967682</v>
+        <v>-1078702.456967683</v>
       </c>
       <c r="C6" t="n">
-        <v>250042.2887599099</v>
+        <v>250042.2887599102</v>
       </c>
       <c r="D6" t="n">
-        <v>250042.2887599101</v>
+        <v>250042.28875991</v>
       </c>
       <c r="E6" t="n">
-        <v>108206.4434246345</v>
+        <v>107996.4791807887</v>
       </c>
       <c r="F6" t="n">
-        <v>220667.9934343687</v>
+        <v>220622.0884388048</v>
       </c>
       <c r="G6" t="n">
-        <v>316814.1677281502</v>
+        <v>316779.4298027143</v>
       </c>
       <c r="H6" t="n">
-        <v>327981.403963729</v>
+        <v>327946.6660382932</v>
       </c>
       <c r="I6" t="n">
-        <v>327981.4039637289</v>
+        <v>327946.6660382932</v>
       </c>
       <c r="J6" t="n">
-        <v>110450.2015664515</v>
+        <v>110415.4636410159</v>
       </c>
       <c r="K6" t="n">
-        <v>327981.403963729</v>
+        <v>327946.6660382929</v>
       </c>
       <c r="L6" t="n">
-        <v>327981.4039637289</v>
+        <v>327946.6660382931</v>
       </c>
       <c r="M6" t="n">
-        <v>274371.867907215</v>
+        <v>274337.1299817786</v>
       </c>
       <c r="N6" t="n">
-        <v>300152.6172815881</v>
+        <v>300117.8793561526</v>
       </c>
       <c r="O6" t="n">
-        <v>324958.1059865044</v>
+        <v>324923.3680610685</v>
       </c>
       <c r="P6" t="n">
-        <v>327981.4039637289</v>
+        <v>327946.6660382931</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1265.323284370642</v>
+        <v>1265.323284370643</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1046.524551566536</v>
+        <v>1046.524551566537</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26960,31 +26960,31 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>175.5465837773445</v>
+      </c>
+      <c r="F3" t="n">
+        <v>92.71776434574281</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9.934451625288148</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>175.5465837773434</v>
-      </c>
-      <c r="F3" t="n">
-        <v>92.71776434574417</v>
-      </c>
-      <c r="G3" t="n">
-        <v>9.93445162528792</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,32 +27009,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>215.1230961642447</v>
+      </c>
+      <c r="F4" t="n">
+        <v>113.6207387594693</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12.56299777364188</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>215.1230961642433</v>
-      </c>
-      <c r="F4" t="n">
-        <v>113.6207387594711</v>
-      </c>
-      <c r="G4" t="n">
-        <v>12.56299777364143</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>215.1230961642433</v>
+        <v>215.1230961642447</v>
       </c>
       <c r="N4" t="n">
-        <v>113.6207387594711</v>
+        <v>113.6207387594693</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>215.1230961642433</v>
+        <v>215.1230961642447</v>
       </c>
       <c r="N4" t="n">
-        <v>113.6207387594711</v>
+        <v>113.6207387594693</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>290.2444771426681</v>
       </c>
       <c r="E2" t="n">
-        <v>30.8339507744177</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>166.0536535416438</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,10 +27552,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>34.20913079139243</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>65.75137080161551</v>
       </c>
       <c r="D5" t="n">
-        <v>201.2133759749642</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27825,7 +27825,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>53.1972836082837</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>160.3027978282313</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>328.317309923022</v>
       </c>
       <c r="X8" t="n">
-        <v>274.9183408758547</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>134.4530526737247</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28059,7 +28059,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28068,16 +28068,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>232.0649678661466</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29025,7 +29025,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.041087216435699e-12</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29436,7 +29436,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-1.169834245014017e-12</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29688,7 +29688,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-7.032208304403594e-13</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31607,10 +31607,10 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837925</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.086726771339259</v>
+        <v>5.086726771339263</v>
       </c>
       <c r="H11" t="n">
-        <v>52.0944405469782</v>
+        <v>52.09444054697825</v>
       </c>
       <c r="I11" t="n">
-        <v>196.106033852057</v>
+        <v>196.1060338520572</v>
       </c>
       <c r="J11" t="n">
-        <v>431.7295763089558</v>
+        <v>431.7295763089562</v>
       </c>
       <c r="K11" t="n">
-        <v>647.0507205397467</v>
+        <v>647.0507205397474</v>
       </c>
       <c r="L11" t="n">
-        <v>802.7236349681208</v>
+        <v>802.7236349681216</v>
       </c>
       <c r="M11" t="n">
-        <v>893.1847121879254</v>
+        <v>893.1847121879262</v>
       </c>
       <c r="N11" t="n">
-        <v>907.6373746269931</v>
+        <v>907.6373746269938</v>
       </c>
       <c r="O11" t="n">
-        <v>857.0562352944883</v>
+        <v>857.0562352944891</v>
       </c>
       <c r="P11" t="n">
-        <v>731.4776681270502</v>
+        <v>731.4776681270508</v>
       </c>
       <c r="Q11" t="n">
-        <v>549.3092656284628</v>
+        <v>549.3092656284633</v>
       </c>
       <c r="R11" t="n">
-        <v>319.52910055014</v>
+        <v>319.5291005501403</v>
       </c>
       <c r="S11" t="n">
-        <v>115.9137863018935</v>
+        <v>115.9137863018936</v>
       </c>
       <c r="T11" t="n">
-        <v>22.26714644153762</v>
+        <v>22.26714644153764</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4069381417071407</v>
+        <v>0.406938141707141</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.72163876260855</v>
+        <v>2.721638762608552</v>
       </c>
       <c r="H12" t="n">
-        <v>26.28530068098258</v>
+        <v>26.2853006809826</v>
       </c>
       <c r="I12" t="n">
-        <v>93.70554511612772</v>
+        <v>93.70554511612781</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>257.1351780059247</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>439.4849751006977</v>
       </c>
       <c r="L12" t="n">
-        <v>413.9817890969628</v>
+        <v>590.9417848374404</v>
       </c>
       <c r="M12" t="n">
-        <v>689.6011899819996</v>
+        <v>443.1384933385586</v>
       </c>
       <c r="N12" t="n">
-        <v>707.8528815084404</v>
+        <v>707.8528815084411</v>
       </c>
       <c r="O12" t="n">
-        <v>647.5470962948509</v>
+        <v>647.5470962948515</v>
       </c>
       <c r="P12" t="n">
-        <v>519.713633537066</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>347.4148006445581</v>
+        <v>347.4148006445584</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>168.9803435240644</v>
       </c>
       <c r="S12" t="n">
-        <v>50.55324631424212</v>
+        <v>50.55324631424216</v>
       </c>
       <c r="T12" t="n">
-        <v>10.97011413525112</v>
+        <v>10.97011413525114</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1790551817505626</v>
+        <v>0.1790551817505627</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.281730512799518</v>
+        <v>2.281730512799519</v>
       </c>
       <c r="H13" t="n">
-        <v>20.28665855925391</v>
+        <v>20.28665855925393</v>
       </c>
       <c r="I13" t="n">
-        <v>68.61785942128006</v>
+        <v>68.61785942128012</v>
       </c>
       <c r="J13" t="n">
-        <v>161.3183472549259</v>
+        <v>161.318347254926</v>
       </c>
       <c r="K13" t="n">
-        <v>265.0955995779802</v>
+        <v>265.0955995779805</v>
       </c>
       <c r="L13" t="n">
-        <v>339.2310982393029</v>
+        <v>339.2310982393032</v>
       </c>
       <c r="M13" t="n">
-        <v>357.6716293836552</v>
+        <v>357.6716293836556</v>
       </c>
       <c r="N13" t="n">
-        <v>349.1669974723118</v>
+        <v>349.1669974723122</v>
       </c>
       <c r="O13" t="n">
-        <v>322.512236481881</v>
+        <v>322.5122364818813</v>
       </c>
       <c r="P13" t="n">
-        <v>275.9649340207706</v>
+        <v>275.9649340207709</v>
       </c>
       <c r="Q13" t="n">
-        <v>191.0638159399669</v>
+        <v>191.063815939967</v>
       </c>
       <c r="R13" t="n">
-        <v>102.594901057331</v>
+        <v>102.5949010573311</v>
       </c>
       <c r="S13" t="n">
-        <v>39.76433993669703</v>
+        <v>39.76433993669707</v>
       </c>
       <c r="T13" t="n">
-        <v>9.74921219105248</v>
+        <v>9.749212191052489</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1244580279708829</v>
+        <v>0.124458027970883</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,43 +32069,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>139.4267020936829</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>420.7661933823239</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32312,16 +32312,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>210.3948924365567</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N21" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32786,22 +32786,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,40 +33020,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>460.4622569139914</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33439,7 +33439,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33500,28 +33500,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34214,22 +34214,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35255,10 +35255,10 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004592</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>250.6836717822695</v>
+        <v>250.6836717822699</v>
       </c>
       <c r="K11" t="n">
-        <v>426.9608694947662</v>
+        <v>426.9608694947669</v>
       </c>
       <c r="L11" t="n">
-        <v>566.9572199981335</v>
+        <v>566.9572199981344</v>
       </c>
       <c r="M11" t="n">
-        <v>662.8384789606527</v>
+        <v>662.8384789606534</v>
       </c>
       <c r="N11" t="n">
-        <v>678.2243110304021</v>
+        <v>678.224311030403</v>
       </c>
       <c r="O11" t="n">
-        <v>626.9580238728015</v>
+        <v>626.9580238728023</v>
       </c>
       <c r="P11" t="n">
-        <v>500.2446723717806</v>
+        <v>500.2446723717813</v>
       </c>
       <c r="Q11" t="n">
-        <v>327.0035757540132</v>
+        <v>327.0035757540138</v>
       </c>
       <c r="R11" t="n">
-        <v>103.9435627360079</v>
+        <v>103.9435627360082</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>130.297551339258</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>301.6435361263387</v>
       </c>
       <c r="L12" t="n">
-        <v>275.4274093170886</v>
+        <v>452.3874050575662</v>
       </c>
       <c r="M12" t="n">
-        <v>547.4671560599813</v>
+        <v>301.0044594165403</v>
       </c>
       <c r="N12" t="n">
-        <v>576.5111694251071</v>
+        <v>576.5111694251078</v>
       </c>
       <c r="O12" t="n">
-        <v>504.9508518504065</v>
+        <v>504.950851850407</v>
       </c>
       <c r="P12" t="n">
-        <v>385.7392261227358</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>207.4330265585366</v>
+        <v>207.4330265585369</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>23.30083956010046</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.32292581552976</v>
+        <v>34.3229258155299</v>
       </c>
       <c r="K13" t="n">
-        <v>136.0823414074449</v>
+        <v>136.0823414074451</v>
       </c>
       <c r="L13" t="n">
-        <v>204.3464219580646</v>
+        <v>204.3464219580649</v>
       </c>
       <c r="M13" t="n">
-        <v>218.7458454360502</v>
+        <v>218.7458454360505</v>
       </c>
       <c r="N13" t="n">
-        <v>221.4814530070786</v>
+        <v>221.481453007079</v>
       </c>
       <c r="O13" t="n">
-        <v>184.0556980300382</v>
+        <v>184.0556980300385</v>
       </c>
       <c r="P13" t="n">
-        <v>138.236929971623</v>
+        <v>138.2369299716233</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.55881431052103</v>
+        <v>39.5588143105212</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>12.58907542701622</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>282.2118136024497</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>68.26085851453838</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N21" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36434,22 +36434,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.6208179396324</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37148,28 +37148,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060429</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37862,22 +37862,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
